--- a/PlanispherReserveTest002.xls.xlsx
+++ b/PlanispherReserveTest002.xls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Planisphere\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D12A8E-120C-4CF3-B5A7-A72D65FDB3C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6B19BB-E34C-4D59-B8E3-6C38189A5FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="a" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PictTable">a!$A$1:$AA$74</definedName>
+    <definedName name="PictTable">a!$A$1:$AB$74</definedName>
     <definedName name="testCaseTable">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="145">
   <si>
     <t>UserType</t>
   </si>
@@ -433,9 +433,6 @@
     <t>off</t>
   </si>
   <si>
-    <t>offrmal</t>
-  </si>
-  <si>
     <t>on</t>
   </si>
   <si>
@@ -503,6 +500,13 @@
   </si>
   <si>
     <t>なし</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>OptionBill</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1455,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA74"/>
+  <dimension ref="A1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:AA74"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1469,25 +1473,26 @@
     <col min="6" max="6" width="5.09765625" customWidth="1"/>
     <col min="7" max="7" width="4.59765625" customWidth="1"/>
     <col min="8" max="8" width="5.09765625" customWidth="1"/>
-    <col min="9" max="9" width="13.09765625" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
     <col min="10" max="10" width="6.296875" customWidth="1"/>
     <col min="11" max="11" width="5.3984375" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="17.69921875" customWidth="1"/>
     <col min="15" max="15" width="7" customWidth="1"/>
     <col min="16" max="16" width="6.8984375" customWidth="1"/>
-    <col min="17" max="17" width="1.296875" customWidth="1"/>
+    <col min="17" max="17" width="5.5" customWidth="1"/>
     <col min="18" max="18" width="6.09765625" customWidth="1"/>
     <col min="19" max="19" width="5.8984375" customWidth="1"/>
     <col min="20" max="20" width="4.69921875" customWidth="1"/>
     <col min="21" max="21" width="5.296875" customWidth="1"/>
     <col min="22" max="22" width="19.5" customWidth="1"/>
-    <col min="23" max="24" width="4.09765625" customWidth="1"/>
+    <col min="23" max="23" width="7.5" customWidth="1"/>
+    <col min="24" max="24" width="7.3984375" customWidth="1"/>
     <col min="25" max="25" width="12" customWidth="1"/>
-    <col min="26" max="26" width="7.09765625" customWidth="1"/>
+    <col min="26" max="27" width="7.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -1516,13 +1521,13 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" t="s">
         <v>137</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>138</v>
-      </c>
-      <c r="L1" t="s">
-        <v>139</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -1567,10 +1572,13 @@
         <v>49</v>
       </c>
       <c r="AA1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1587,31 +1595,31 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
         <v>124</v>
       </c>
       <c r="J2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" t="s">
         <v>140</v>
       </c>
-      <c r="K2" t="s">
-        <v>141</v>
-      </c>
       <c r="M2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O33" si="0">Q2-P2</f>
+        <f>Q2-P2</f>
         <v>6</v>
       </c>
       <c r="P2">
@@ -1639,23 +1647,27 @@
         <v>9000</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X33" si="1">W2*1.25</f>
+        <f t="shared" ref="X2:X33" si="0">W2*1.25</f>
         <v>11250</v>
       </c>
       <c r="Y2">
-        <f>W2*O2*R2+1000*S2*O2*R2+1000*T2*R2+1000*U2*R2</f>
-        <v>366000</v>
+        <f>W2*O2*R2+1000*S2*O2*R2</f>
+        <v>360000</v>
       </c>
       <c r="Z2">
-        <f>W2*P2*R2+1000*S2*P2*R2+1000*T2*R2+1000*U2*R2</f>
-        <v>186000</v>
+        <f>X2*P2*R2+1000*S2*P2*R2</f>
+        <v>220500</v>
       </c>
       <c r="AA2">
-        <f>Y2+Z2</f>
-        <v>552000</v>
+        <f>1000*T2*R2+1000*U2*R2</f>
+        <v>6000</v>
+      </c>
+      <c r="AB2">
+        <f>Y2+Z2+AA2</f>
+        <v>586500</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1672,7 +1684,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
         <v>124</v>
@@ -1681,19 +1693,19 @@
         <v>124</v>
       </c>
       <c r="I3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M3" t="s">
         <v>126</v>
-      </c>
-      <c r="L3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M3" t="s">
-        <v>127</v>
       </c>
       <c r="N3" t="s">
         <v>18</v>
       </c>
       <c r="O3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O3:O33" si="1">Q3-P3</f>
         <v>0</v>
       </c>
       <c r="P3">
@@ -1721,23 +1733,27 @@
         <v>9000</v>
       </c>
       <c r="X3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y66" si="2">W3*O3*R3+1000*S3*O3*R3+1000*T3*R3+1000*U3*R3</f>
+        <f t="shared" ref="Y3:Y66" si="2">W3*O3*R3+1000*S3*O3*R3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z66" si="3">X3*P3*R3+1000*S3*P3*R3</f>
+        <v>67500</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA66" si="4">1000*T3*R3+1000*U3*R3</f>
         <v>6000</v>
       </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z66" si="3">W3*P3*R3+1000*S3*P3*R3+1000*T3*R3+1000*U3*R3</f>
-        <v>60000</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA66" si="4">Y3+Z3</f>
-        <v>66000</v>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB66" si="5">Y3+Z3+AA3</f>
+        <v>73500</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1754,28 +1770,28 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
         <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I4" t="s">
         <v>124</v>
       </c>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N4" t="s">
         <v>124</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P4">
@@ -1803,23 +1819,27 @@
         <v>9000</v>
       </c>
       <c r="X4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
       <c r="Y4">
         <f t="shared" si="2"/>
-        <v>384000</v>
+        <v>378000</v>
       </c>
       <c r="Z4">
         <f t="shared" si="3"/>
-        <v>114000</v>
+        <v>135000</v>
       </c>
       <c r="AA4">
         <f t="shared" si="4"/>
-        <v>498000</v>
+        <v>6000</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="5"/>
+        <v>519000</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1836,7 +1856,7 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
         <v>124</v>
@@ -1845,19 +1865,19 @@
         <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N5" t="s">
         <v>124</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P5">
@@ -1879,29 +1899,33 @@
         <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W5">
         <v>7000</v>
       </c>
       <c r="X5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8750</v>
       </c>
       <c r="Y5">
         <f t="shared" si="2"/>
-        <v>324000</v>
+        <v>315000</v>
       </c>
       <c r="Z5">
         <f t="shared" si="3"/>
-        <v>261000</v>
+        <v>315000</v>
       </c>
       <c r="AA5">
         <f t="shared" si="4"/>
-        <v>585000</v>
+        <v>9000</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="5"/>
+        <v>639000</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1918,7 +1942,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
         <v>124</v>
@@ -1927,19 +1951,19 @@
         <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N6" t="s">
         <v>124</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P6">
@@ -1961,29 +1985,33 @@
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W6">
         <v>7000</v>
       </c>
       <c r="X6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8750</v>
       </c>
       <c r="Y6">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>49000</v>
       </c>
       <c r="Z6">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="AA6">
         <f t="shared" si="4"/>
-        <v>65000</v>
+        <v>1000</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="5"/>
+        <v>67500</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2000,28 +2028,28 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
         <v>124</v>
       </c>
       <c r="H7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7" t="s">
         <v>126</v>
       </c>
-      <c r="I7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M7" t="s">
-        <v>127</v>
-      </c>
       <c r="N7" t="s">
         <v>124</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P7">
@@ -2043,29 +2071,33 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W7">
         <v>7000</v>
       </c>
       <c r="X7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8750</v>
       </c>
       <c r="Y7">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>49000</v>
       </c>
       <c r="Z7">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="AA7">
         <f t="shared" si="4"/>
-        <v>65000</v>
+        <v>1000</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="5"/>
+        <v>67500</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -2082,7 +2114,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
         <v>124</v>
@@ -2091,19 +2123,19 @@
         <v>124</v>
       </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s">
         <v>18</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P8">
@@ -2125,29 +2157,33 @@
         <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W8">
         <v>8000</v>
       </c>
       <c r="X8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="Y8">
         <f t="shared" si="2"/>
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="Z8">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <f t="shared" si="4"/>
-        <v>36000</v>
+        <v>2000</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="5"/>
+        <v>34000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -2164,7 +2200,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" t="s">
         <v>124</v>
@@ -2173,19 +2209,19 @@
         <v>124</v>
       </c>
       <c r="I9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" t="s">
+        <v>141</v>
+      </c>
+      <c r="M9" t="s">
         <v>126</v>
       </c>
-      <c r="L9" t="s">
-        <v>142</v>
-      </c>
-      <c r="M9" t="s">
-        <v>127</v>
-      </c>
       <c r="N9" t="s">
         <v>124</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P9">
@@ -2207,29 +2243,33 @@
         <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W9">
         <v>8000</v>
       </c>
       <c r="X9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="Y9">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <f t="shared" si="3"/>
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="AA9">
         <f t="shared" si="4"/>
-        <v>36000</v>
+        <v>2000</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="5"/>
+        <v>42000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -2246,7 +2286,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
         <v>124</v>
@@ -2258,16 +2298,16 @@
         <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N10" t="s">
         <v>18</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P10">
@@ -2289,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W10">
         <v>8000</v>
       </c>
       <c r="X10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="Y10">
@@ -2308,10 +2348,14 @@
       </c>
       <c r="AA10">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="5"/>
         <v>32000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -2328,28 +2372,28 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" t="s">
         <v>126</v>
       </c>
-      <c r="H11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" t="s">
-        <v>140</v>
-      </c>
-      <c r="M11" t="s">
-        <v>127</v>
-      </c>
       <c r="N11" t="s">
         <v>124</v>
       </c>
       <c r="O11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P11">
@@ -2371,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W11">
         <v>8000</v>
       </c>
       <c r="X11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="Y11">
@@ -2390,10 +2434,14 @@
       </c>
       <c r="AA11">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="5"/>
         <v>36000</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -2410,31 +2458,31 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I12" t="s">
         <v>124</v>
       </c>
       <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
         <v>140</v>
       </c>
-      <c r="K12" t="s">
-        <v>141</v>
-      </c>
       <c r="M12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N12" t="s">
         <v>18</v>
       </c>
       <c r="O12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P12">
@@ -2462,23 +2510,27 @@
         <v>10000</v>
       </c>
       <c r="X12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="Y12">
         <f t="shared" si="2"/>
-        <v>306000</v>
+        <v>297000</v>
       </c>
       <c r="Z12">
         <f t="shared" si="3"/>
-        <v>207000</v>
+        <v>243000</v>
       </c>
       <c r="AA12">
         <f t="shared" si="4"/>
-        <v>513000</v>
+        <v>9000</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="5"/>
+        <v>549000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2495,10 +2547,10 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s">
         <v>124</v>
@@ -2507,16 +2559,16 @@
         <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N13" t="s">
         <v>124</v>
       </c>
       <c r="O13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P13">
@@ -2544,7 +2596,7 @@
         <v>10000</v>
       </c>
       <c r="X13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="Y13">
@@ -2553,14 +2605,18 @@
       </c>
       <c r="Z13">
         <f t="shared" si="3"/>
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="AA13">
         <f t="shared" si="4"/>
-        <v>55000</v>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="5"/>
+        <v>60000</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2577,7 +2633,7 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
         <v>124</v>
@@ -2589,16 +2645,16 @@
         <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N14" t="s">
         <v>18</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P14">
@@ -2626,7 +2682,7 @@
         <v>10000</v>
       </c>
       <c r="X14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="Y14">
@@ -2635,14 +2691,18 @@
       </c>
       <c r="Z14">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="AA14">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="5"/>
+        <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2659,7 +2719,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
         <v>124</v>
@@ -2671,16 +2731,16 @@
         <v>124</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N15" t="s">
         <v>124</v>
       </c>
       <c r="O15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P15">
@@ -2708,7 +2768,7 @@
         <v>10000</v>
       </c>
       <c r="X15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="Y15">
@@ -2721,10 +2781,14 @@
       </c>
       <c r="AA15">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2741,10 +2805,10 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" t="s">
         <v>124</v>
@@ -2753,16 +2817,16 @@
         <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N16" t="s">
         <v>124</v>
       </c>
       <c r="O16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P16">
@@ -2790,7 +2854,7 @@
         <v>7500</v>
       </c>
       <c r="X16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9375</v>
       </c>
       <c r="Y16">
@@ -2803,10 +2867,14 @@
       </c>
       <c r="AA16">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="5"/>
         <v>8500</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -2823,7 +2891,7 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
         <v>124</v>
@@ -2832,19 +2900,19 @@
         <v>124</v>
       </c>
       <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" t="s">
         <v>126</v>
-      </c>
-      <c r="L17" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" t="s">
-        <v>127</v>
       </c>
       <c r="N17" t="s">
         <v>18</v>
       </c>
       <c r="O17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P17">
@@ -2872,23 +2940,27 @@
         <v>7500</v>
       </c>
       <c r="X17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9375</v>
       </c>
       <c r="Y17">
         <f t="shared" si="2"/>
-        <v>53500</v>
+        <v>52500</v>
       </c>
       <c r="Z17">
         <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>18750</v>
       </c>
       <c r="AA17">
         <f t="shared" si="4"/>
-        <v>69500</v>
+        <v>1000</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="5"/>
+        <v>72250</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -2905,28 +2977,28 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
         <v>124</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I18" t="s">
         <v>124</v>
       </c>
       <c r="K18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N18" t="s">
         <v>18</v>
       </c>
       <c r="O18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P18">
@@ -2954,23 +3026,27 @@
         <v>7500</v>
       </c>
       <c r="X18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9375</v>
       </c>
       <c r="Y18">
         <f t="shared" si="2"/>
-        <v>53500</v>
+        <v>52500</v>
       </c>
       <c r="Z18">
         <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>18750</v>
       </c>
       <c r="AA18">
         <f t="shared" si="4"/>
-        <v>69500</v>
+        <v>1000</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="5"/>
+        <v>72250</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -2987,31 +3063,31 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s">
+        <v>141</v>
+      </c>
+      <c r="M19" t="s">
         <v>126</v>
       </c>
-      <c r="H19" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" t="s">
-        <v>126</v>
-      </c>
-      <c r="J19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L19" t="s">
-        <v>142</v>
-      </c>
-      <c r="M19" t="s">
-        <v>127</v>
-      </c>
       <c r="N19" t="s">
         <v>124</v>
       </c>
       <c r="O19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P19">
@@ -3039,23 +3115,27 @@
         <v>5500</v>
       </c>
       <c r="X19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6875</v>
       </c>
       <c r="Y19">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Z19">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <f t="shared" si="4"/>
-        <v>17000</v>
+        <v>2000</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="5"/>
+        <v>15000</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -3072,31 +3152,31 @@
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" t="s">
         <v>126</v>
-      </c>
-      <c r="H20" t="s">
-        <v>126</v>
-      </c>
-      <c r="I20" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" t="s">
-        <v>141</v>
-      </c>
-      <c r="M20" t="s">
-        <v>127</v>
       </c>
       <c r="N20" t="s">
         <v>18</v>
       </c>
       <c r="O20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P20">
@@ -3124,23 +3204,27 @@
         <v>9000</v>
       </c>
       <c r="X20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
       <c r="Y20">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Z20">
         <f t="shared" si="3"/>
-        <v>11000</v>
+        <v>12250</v>
       </c>
       <c r="AA20">
         <f t="shared" si="4"/>
-        <v>32000</v>
+        <v>1000</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="5"/>
+        <v>33250</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -3157,10 +3241,10 @@
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H21" t="s">
         <v>124</v>
@@ -3169,16 +3253,16 @@
         <v>124</v>
       </c>
       <c r="J21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N21" t="s">
         <v>124</v>
       </c>
       <c r="O21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P21">
@@ -3206,7 +3290,7 @@
         <v>9000</v>
       </c>
       <c r="X21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
       <c r="Y21">
@@ -3215,14 +3299,18 @@
       </c>
       <c r="Z21">
         <f t="shared" si="3"/>
-        <v>60000</v>
+        <v>73500</v>
       </c>
       <c r="AA21">
         <f t="shared" si="4"/>
-        <v>180000</v>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="5"/>
+        <v>193500</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -3239,7 +3327,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
         <v>124</v>
@@ -3248,19 +3336,19 @@
         <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N22" t="s">
         <v>18</v>
       </c>
       <c r="O22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P22">
@@ -3288,28 +3376,32 @@
         <v>9000</v>
       </c>
       <c r="X22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
       <c r="Y22">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="Z22">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <f t="shared" si="4"/>
-        <v>66000</v>
+        <v>6000</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="5"/>
+        <v>60000</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -3321,7 +3413,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
         <v>124</v>
@@ -3330,19 +3422,19 @@
         <v>124</v>
       </c>
       <c r="I23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N23" t="s">
         <v>18</v>
       </c>
       <c r="O23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P23">
@@ -3370,28 +3462,32 @@
         <v>9000</v>
       </c>
       <c r="X23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
       <c r="Y23">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="Z23">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <f t="shared" si="4"/>
-        <v>66000</v>
+        <v>6000</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="5"/>
+        <v>60000</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -3403,7 +3499,7 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" t="s">
         <v>124</v>
@@ -3415,16 +3511,16 @@
         <v>124</v>
       </c>
       <c r="J24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N24" t="s">
         <v>124</v>
       </c>
       <c r="O24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P24">
@@ -3452,7 +3548,7 @@
         <v>9000</v>
       </c>
       <c r="X24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
       <c r="Y24">
@@ -3461,19 +3557,23 @@
       </c>
       <c r="Z24">
         <f t="shared" si="3"/>
-        <v>216000</v>
+        <v>270000</v>
       </c>
       <c r="AA24">
         <f t="shared" si="4"/>
-        <v>486000</v>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="5"/>
+        <v>540000</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
@@ -3485,31 +3585,31 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25" t="s">
         <v>126</v>
       </c>
-      <c r="H25" t="s">
-        <v>126</v>
-      </c>
-      <c r="I25" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" t="s">
-        <v>141</v>
-      </c>
-      <c r="M25" t="s">
-        <v>127</v>
-      </c>
       <c r="N25" t="s">
         <v>124</v>
       </c>
       <c r="O25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P25">
@@ -3537,28 +3637,32 @@
         <v>9000</v>
       </c>
       <c r="X25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
       <c r="Y25">
         <f t="shared" si="2"/>
-        <v>71000</v>
+        <v>70000</v>
       </c>
       <c r="Z25">
         <f t="shared" si="3"/>
-        <v>21000</v>
+        <v>24500</v>
       </c>
       <c r="AA25">
         <f t="shared" si="4"/>
-        <v>92000</v>
+        <v>1000</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="5"/>
+        <v>95500</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -3570,31 +3674,31 @@
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I26" t="s">
         <v>124</v>
       </c>
       <c r="J26" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" t="s">
         <v>140</v>
       </c>
-      <c r="K26" t="s">
-        <v>141</v>
-      </c>
       <c r="M26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N26" t="s">
         <v>124</v>
       </c>
       <c r="O26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P26">
@@ -3622,28 +3726,32 @@
         <v>6000</v>
       </c>
       <c r="X26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="Y26">
         <f t="shared" si="2"/>
-        <v>43000</v>
+        <v>42000</v>
       </c>
       <c r="Z26">
         <f t="shared" si="3"/>
-        <v>22000</v>
+        <v>25500</v>
       </c>
       <c r="AA26">
         <f t="shared" si="4"/>
-        <v>65000</v>
+        <v>1000</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="5"/>
+        <v>68500</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
@@ -3655,31 +3763,31 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" t="s">
+        <v>139</v>
+      </c>
+      <c r="K27" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27" t="s">
         <v>126</v>
-      </c>
-      <c r="H27" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" t="s">
-        <v>124</v>
-      </c>
-      <c r="J27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K27" t="s">
-        <v>141</v>
-      </c>
-      <c r="M27" t="s">
-        <v>127</v>
       </c>
       <c r="N27" t="s">
         <v>18</v>
       </c>
       <c r="O27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P27">
@@ -3707,28 +3815,32 @@
         <v>6000</v>
       </c>
       <c r="X27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="Y27">
         <f t="shared" si="2"/>
-        <v>72000</v>
+        <v>63000</v>
       </c>
       <c r="Z27">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <f t="shared" si="4"/>
-        <v>81000</v>
+        <v>9000</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="5"/>
+        <v>72000</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
@@ -3740,7 +3852,7 @@
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
         <v>124</v>
@@ -3749,19 +3861,19 @@
         <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N28" t="s">
         <v>18</v>
       </c>
       <c r="O28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P28">
@@ -3789,28 +3901,32 @@
         <v>6000</v>
       </c>
       <c r="X28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="Y28">
         <f t="shared" si="2"/>
-        <v>43000</v>
+        <v>42000</v>
       </c>
       <c r="Z28">
         <f t="shared" si="3"/>
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="AA28">
         <f t="shared" si="4"/>
-        <v>56000</v>
+        <v>1000</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="5"/>
+        <v>58000</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
@@ -3822,31 +3938,31 @@
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29" t="s">
         <v>126</v>
-      </c>
-      <c r="H29" t="s">
-        <v>126</v>
-      </c>
-      <c r="I29" t="s">
-        <v>124</v>
-      </c>
-      <c r="J29" t="s">
-        <v>140</v>
-      </c>
-      <c r="K29" t="s">
-        <v>141</v>
-      </c>
-      <c r="M29" t="s">
-        <v>127</v>
       </c>
       <c r="N29" t="s">
         <v>18</v>
       </c>
       <c r="O29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P29">
@@ -3874,28 +3990,32 @@
         <v>6000</v>
       </c>
       <c r="X29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="Y29">
         <f t="shared" si="2"/>
-        <v>72000</v>
+        <v>63000</v>
       </c>
       <c r="Z29">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <f t="shared" si="4"/>
-        <v>81000</v>
+        <v>9000</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="5"/>
+        <v>72000</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
@@ -3907,7 +4027,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
         <v>124</v>
@@ -3919,16 +4039,16 @@
         <v>124</v>
       </c>
       <c r="J30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N30" t="s">
         <v>124</v>
       </c>
       <c r="O30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P30">
@@ -3956,7 +4076,7 @@
         <v>6000</v>
       </c>
       <c r="X30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="Y30">
@@ -3969,15 +4089,19 @@
       </c>
       <c r="AA30">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="5"/>
         <v>54000</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3989,10 +4113,10 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H31" t="s">
         <v>124</v>
@@ -4001,16 +4125,16 @@
         <v>124</v>
       </c>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N31" t="s">
         <v>124</v>
       </c>
       <c r="O31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P31">
@@ -4032,13 +4156,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W31">
         <v>7000</v>
       </c>
       <c r="X31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8750</v>
       </c>
       <c r="Y31">
@@ -4047,19 +4171,23 @@
       </c>
       <c r="Z31">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>29250</v>
       </c>
       <c r="AA31">
         <f t="shared" si="4"/>
-        <v>72000</v>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="5"/>
+        <v>77250</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -4071,28 +4199,28 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" t="s">
         <v>124</v>
       </c>
       <c r="H32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" t="s">
+        <v>124</v>
+      </c>
+      <c r="K32" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" t="s">
         <v>126</v>
       </c>
-      <c r="I32" t="s">
-        <v>124</v>
-      </c>
-      <c r="K32" t="s">
-        <v>141</v>
-      </c>
-      <c r="M32" t="s">
-        <v>127</v>
-      </c>
       <c r="N32" t="s">
         <v>124</v>
       </c>
       <c r="O32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P32">
@@ -4114,34 +4242,38 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W32">
         <v>7000</v>
       </c>
       <c r="X32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8750</v>
       </c>
       <c r="Y32">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <f t="shared" si="3"/>
-        <v>72000</v>
+        <v>78750</v>
       </c>
       <c r="AA32">
         <f t="shared" si="4"/>
-        <v>81000</v>
+        <v>9000</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="5"/>
+        <v>87750</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -4153,10 +4285,10 @@
         <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H33" t="s">
         <v>124</v>
@@ -4165,16 +4297,16 @@
         <v>124</v>
       </c>
       <c r="J33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N33" t="s">
         <v>124</v>
       </c>
       <c r="O33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P33">
@@ -4196,13 +4328,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W33">
         <v>7000</v>
       </c>
       <c r="X33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8750</v>
       </c>
       <c r="Y33">
@@ -4211,19 +4343,23 @@
       </c>
       <c r="Z33">
         <f t="shared" si="3"/>
-        <v>144000</v>
+        <v>175500</v>
       </c>
       <c r="AA33">
         <f t="shared" si="4"/>
-        <v>648000</v>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="5"/>
+        <v>679500</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -4235,7 +4371,7 @@
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G34" t="s">
         <v>124</v>
@@ -4247,16 +4383,16 @@
         <v>124</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N34" t="s">
         <v>18</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O65" si="5">Q34-P34</f>
+        <f t="shared" ref="O34:O65" si="6">Q34-P34</f>
         <v>1</v>
       </c>
       <c r="P34">
@@ -4278,13 +4414,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W34">
         <v>8000</v>
       </c>
       <c r="X34">
-        <f t="shared" ref="X34:X65" si="6">W34*1.25</f>
+        <f t="shared" ref="X34:X65" si="7">W34*1.25</f>
         <v>10000</v>
       </c>
       <c r="Y34">
@@ -4293,19 +4429,23 @@
       </c>
       <c r="Z34">
         <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="AA34">
         <f t="shared" si="4"/>
-        <v>32000</v>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="5"/>
+        <v>36000</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -4317,34 +4457,34 @@
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" t="s">
+        <v>125</v>
+      </c>
+      <c r="J35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35" t="s">
+        <v>140</v>
+      </c>
+      <c r="L35" t="s">
+        <v>141</v>
+      </c>
+      <c r="M35" t="s">
         <v>126</v>
       </c>
-      <c r="H35" t="s">
-        <v>126</v>
-      </c>
-      <c r="I35" t="s">
-        <v>126</v>
-      </c>
-      <c r="J35" t="s">
-        <v>140</v>
-      </c>
-      <c r="K35" t="s">
-        <v>141</v>
-      </c>
-      <c r="L35" t="s">
-        <v>142</v>
-      </c>
-      <c r="M35" t="s">
-        <v>127</v>
-      </c>
       <c r="N35" t="s">
         <v>124</v>
       </c>
       <c r="O35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P35">
@@ -4366,34 +4506,38 @@
         <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W35">
         <v>8000</v>
       </c>
       <c r="X35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
       <c r="Y35">
         <f t="shared" si="2"/>
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Z35">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <f t="shared" si="4"/>
-        <v>26000</v>
+        <v>4000</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="5"/>
+        <v>22000</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
@@ -4405,31 +4549,31 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" t="s">
+        <v>139</v>
+      </c>
+      <c r="L36" t="s">
+        <v>141</v>
+      </c>
+      <c r="M36" t="s">
         <v>126</v>
       </c>
-      <c r="H36" t="s">
-        <v>124</v>
-      </c>
-      <c r="I36" t="s">
-        <v>126</v>
-      </c>
-      <c r="J36" t="s">
-        <v>140</v>
-      </c>
-      <c r="L36" t="s">
-        <v>142</v>
-      </c>
-      <c r="M36" t="s">
-        <v>127</v>
-      </c>
       <c r="N36" t="s">
         <v>124</v>
       </c>
       <c r="O36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P36">
@@ -4457,28 +4601,32 @@
         <v>8500</v>
       </c>
       <c r="X36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10625</v>
       </c>
       <c r="Y36">
         <f t="shared" si="2"/>
-        <v>42000</v>
+        <v>38000</v>
       </c>
       <c r="Z36">
         <f t="shared" si="3"/>
-        <v>80000</v>
+        <v>93000</v>
       </c>
       <c r="AA36">
         <f t="shared" si="4"/>
-        <v>122000</v>
+        <v>4000</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="5"/>
+        <v>135000</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
         <v>30</v>
@@ -4490,7 +4638,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G37" t="s">
         <v>124</v>
@@ -4502,16 +4650,16 @@
         <v>124</v>
       </c>
       <c r="J37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N37" t="s">
         <v>18</v>
       </c>
       <c r="O37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P37">
@@ -4539,7 +4687,7 @@
         <v>8500</v>
       </c>
       <c r="X37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10625</v>
       </c>
       <c r="Y37">
@@ -4552,15 +4700,19 @@
       </c>
       <c r="AA37">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="5"/>
         <v>34000</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
@@ -4572,31 +4724,31 @@
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G38" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L38" t="s">
+        <v>141</v>
+      </c>
+      <c r="M38" t="s">
         <v>126</v>
-      </c>
-      <c r="H38" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" t="s">
-        <v>126</v>
-      </c>
-      <c r="J38" t="s">
-        <v>140</v>
-      </c>
-      <c r="L38" t="s">
-        <v>142</v>
-      </c>
-      <c r="M38" t="s">
-        <v>127</v>
       </c>
       <c r="N38" t="s">
         <v>18</v>
       </c>
       <c r="O38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P38">
@@ -4624,28 +4776,32 @@
         <v>8500</v>
       </c>
       <c r="X38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10625</v>
       </c>
       <c r="Y38">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <f t="shared" si="3"/>
-        <v>10500</v>
+        <v>11625</v>
       </c>
       <c r="AA38">
         <f t="shared" si="4"/>
-        <v>11500</v>
+        <v>1000</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="5"/>
+        <v>12625</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
         <v>30</v>
@@ -4657,31 +4813,31 @@
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G39" t="s">
         <v>124</v>
       </c>
       <c r="H39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K39" t="s">
+        <v>140</v>
+      </c>
+      <c r="L39" t="s">
         <v>141</v>
       </c>
-      <c r="L39" t="s">
-        <v>142</v>
-      </c>
       <c r="M39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N39" t="s">
         <v>18</v>
       </c>
       <c r="O39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P39">
@@ -4709,28 +4865,32 @@
         <v>8500</v>
       </c>
       <c r="X39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10625</v>
       </c>
       <c r="Y39">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <f t="shared" si="3"/>
-        <v>42000</v>
+        <v>42500</v>
       </c>
       <c r="AA39">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>8000</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="5"/>
+        <v>50500</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
@@ -4742,7 +4902,7 @@
         <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G40" t="s">
         <v>124</v>
@@ -4751,19 +4911,19 @@
         <v>124</v>
       </c>
       <c r="I40" t="s">
+        <v>125</v>
+      </c>
+      <c r="L40" t="s">
+        <v>141</v>
+      </c>
+      <c r="M40" t="s">
         <v>126</v>
-      </c>
-      <c r="L40" t="s">
-        <v>142</v>
-      </c>
-      <c r="M40" t="s">
-        <v>127</v>
       </c>
       <c r="N40" t="s">
         <v>18</v>
       </c>
       <c r="O40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="P40">
@@ -4791,28 +4951,32 @@
         <v>8500</v>
       </c>
       <c r="X40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10625</v>
       </c>
       <c r="Y40">
         <f t="shared" si="2"/>
-        <v>72000</v>
+        <v>68000</v>
       </c>
       <c r="Z40">
         <f t="shared" si="3"/>
-        <v>38000</v>
+        <v>42500</v>
       </c>
       <c r="AA40">
         <f t="shared" si="4"/>
-        <v>110000</v>
+        <v>4000</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="5"/>
+        <v>114500</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -4824,28 +4988,28 @@
         <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G41" t="s">
         <v>124</v>
       </c>
       <c r="H41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" t="s">
+        <v>124</v>
+      </c>
+      <c r="K41" t="s">
+        <v>140</v>
+      </c>
+      <c r="M41" t="s">
         <v>126</v>
       </c>
-      <c r="I41" t="s">
-        <v>124</v>
-      </c>
-      <c r="K41" t="s">
-        <v>141</v>
-      </c>
-      <c r="M41" t="s">
-        <v>127</v>
-      </c>
       <c r="N41" t="s">
         <v>124</v>
       </c>
       <c r="O41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="P41">
@@ -4873,28 +5037,32 @@
         <v>8500</v>
       </c>
       <c r="X41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10625</v>
       </c>
       <c r="Y41">
         <f t="shared" si="2"/>
-        <v>106000</v>
+        <v>102000</v>
       </c>
       <c r="Z41">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AA41">
         <f t="shared" si="4"/>
-        <v>110000</v>
+        <v>4000</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="5"/>
+        <v>106000</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
         <v>19</v>
@@ -4906,34 +5074,34 @@
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J42" t="s">
+        <v>139</v>
+      </c>
+      <c r="K42" t="s">
         <v>140</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>141</v>
       </c>
-      <c r="L42" t="s">
-        <v>142</v>
-      </c>
       <c r="M42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N42" t="s">
         <v>124</v>
       </c>
       <c r="O42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="P42">
@@ -4961,28 +5129,32 @@
         <v>10000</v>
       </c>
       <c r="X42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12500</v>
       </c>
       <c r="Y42">
         <f t="shared" si="2"/>
-        <v>414000</v>
+        <v>396000</v>
       </c>
       <c r="Z42">
         <f t="shared" si="3"/>
-        <v>117000</v>
+        <v>121500</v>
       </c>
       <c r="AA42">
         <f t="shared" si="4"/>
-        <v>531000</v>
+        <v>18000</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="5"/>
+        <v>535500</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
@@ -4994,31 +5166,31 @@
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G43" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" t="s">
+        <v>125</v>
+      </c>
+      <c r="I43" t="s">
+        <v>124</v>
+      </c>
+      <c r="J43" t="s">
+        <v>139</v>
+      </c>
+      <c r="K43" t="s">
+        <v>140</v>
+      </c>
+      <c r="M43" t="s">
         <v>126</v>
-      </c>
-      <c r="H43" t="s">
-        <v>126</v>
-      </c>
-      <c r="I43" t="s">
-        <v>124</v>
-      </c>
-      <c r="J43" t="s">
-        <v>140</v>
-      </c>
-      <c r="K43" t="s">
-        <v>141</v>
-      </c>
-      <c r="M43" t="s">
-        <v>127</v>
       </c>
       <c r="N43" t="s">
         <v>18</v>
       </c>
       <c r="O43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P43">
@@ -5046,28 +5218,32 @@
         <v>7500</v>
       </c>
       <c r="X43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9375</v>
       </c>
       <c r="Y43">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z43">
         <f t="shared" si="3"/>
-        <v>9500</v>
+        <v>10375</v>
       </c>
       <c r="AA43">
         <f t="shared" si="4"/>
-        <v>10500</v>
+        <v>1000</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="5"/>
+        <v>11375</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
@@ -5079,31 +5255,31 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" t="s">
+        <v>125</v>
+      </c>
+      <c r="I44" t="s">
+        <v>124</v>
+      </c>
+      <c r="J44" t="s">
+        <v>139</v>
+      </c>
+      <c r="K44" t="s">
+        <v>140</v>
+      </c>
+      <c r="M44" t="s">
         <v>126</v>
-      </c>
-      <c r="H44" t="s">
-        <v>126</v>
-      </c>
-      <c r="I44" t="s">
-        <v>124</v>
-      </c>
-      <c r="J44" t="s">
-        <v>140</v>
-      </c>
-      <c r="K44" t="s">
-        <v>141</v>
-      </c>
-      <c r="M44" t="s">
-        <v>127</v>
       </c>
       <c r="N44" t="s">
         <v>18</v>
       </c>
       <c r="O44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P44">
@@ -5131,28 +5307,32 @@
         <v>7500</v>
       </c>
       <c r="X44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9375</v>
       </c>
       <c r="Y44">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z44">
         <f t="shared" si="3"/>
-        <v>9500</v>
+        <v>10375</v>
       </c>
       <c r="AA44">
         <f t="shared" si="4"/>
-        <v>10500</v>
+        <v>1000</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="5"/>
+        <v>11375</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
         <v>22</v>
@@ -5164,7 +5344,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G45" t="s">
         <v>124</v>
@@ -5173,19 +5353,19 @@
         <v>124</v>
       </c>
       <c r="I45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N45" t="s">
         <v>18</v>
       </c>
       <c r="O45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P45">
@@ -5213,28 +5393,32 @@
         <v>5500</v>
       </c>
       <c r="X45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6875</v>
       </c>
       <c r="Y45">
         <f t="shared" si="2"/>
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Z45">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>2000</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="5"/>
+        <v>13000</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
         <v>22</v>
@@ -5246,7 +5430,7 @@
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G46" t="s">
         <v>124</v>
@@ -5258,16 +5442,16 @@
         <v>124</v>
       </c>
       <c r="J46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N46" t="s">
         <v>18</v>
       </c>
       <c r="O46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="P46">
@@ -5295,7 +5479,7 @@
         <v>5500</v>
       </c>
       <c r="X46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6875</v>
       </c>
       <c r="Y46">
@@ -5304,19 +5488,23 @@
       </c>
       <c r="Z46">
         <f t="shared" si="3"/>
-        <v>11000</v>
+        <v>13750</v>
       </c>
       <c r="AA46">
         <f t="shared" si="4"/>
-        <v>49500</v>
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="5"/>
+        <v>52250</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
         <v>22</v>
@@ -5328,31 +5516,31 @@
         <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G47" t="s">
         <v>124</v>
       </c>
       <c r="H47" t="s">
+        <v>125</v>
+      </c>
+      <c r="I47" t="s">
+        <v>125</v>
+      </c>
+      <c r="K47" t="s">
+        <v>140</v>
+      </c>
+      <c r="L47" t="s">
+        <v>141</v>
+      </c>
+      <c r="M47" t="s">
         <v>126</v>
-      </c>
-      <c r="I47" t="s">
-        <v>126</v>
-      </c>
-      <c r="K47" t="s">
-        <v>141</v>
-      </c>
-      <c r="L47" t="s">
-        <v>142</v>
-      </c>
-      <c r="M47" t="s">
-        <v>127</v>
       </c>
       <c r="N47" t="s">
         <v>18</v>
       </c>
       <c r="O47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P47">
@@ -5380,28 +5568,32 @@
         <v>5500</v>
       </c>
       <c r="X47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6875</v>
       </c>
       <c r="Y47">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="Z47">
         <f t="shared" si="3"/>
-        <v>18500</v>
+        <v>20625</v>
       </c>
       <c r="AA47">
         <f t="shared" si="4"/>
-        <v>53500</v>
+        <v>2000</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="5"/>
+        <v>55625</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
         <v>22</v>
@@ -5413,31 +5605,31 @@
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G48" t="s">
         <v>124</v>
       </c>
       <c r="H48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K48" t="s">
+        <v>140</v>
+      </c>
+      <c r="L48" t="s">
         <v>141</v>
       </c>
-      <c r="L48" t="s">
-        <v>142</v>
-      </c>
       <c r="M48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N48" t="s">
         <v>18</v>
       </c>
       <c r="O48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P48">
@@ -5465,28 +5657,32 @@
         <v>5500</v>
       </c>
       <c r="X48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6875</v>
       </c>
       <c r="Y48">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Z48">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AA48">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>4000</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="5"/>
+        <v>15000</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
@@ -5498,7 +5694,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G49" t="s">
         <v>124</v>
@@ -5507,19 +5703,19 @@
         <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N49" t="s">
         <v>18</v>
       </c>
       <c r="O49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P49">
@@ -5547,28 +5743,32 @@
         <v>9000</v>
       </c>
       <c r="X49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11250</v>
       </c>
       <c r="Y49">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="Z49">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AA49">
         <f t="shared" si="4"/>
-        <v>66000</v>
+        <v>6000</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="5"/>
+        <v>60000</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
@@ -5580,7 +5780,7 @@
         <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G50" t="s">
         <v>124</v>
@@ -5589,19 +5789,19 @@
         <v>124</v>
       </c>
       <c r="I50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N50" t="s">
         <v>18</v>
       </c>
       <c r="O50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="P50">
@@ -5629,28 +5829,32 @@
         <v>9000</v>
       </c>
       <c r="X50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11250</v>
       </c>
       <c r="Y50">
         <f t="shared" si="2"/>
-        <v>168000</v>
+        <v>162000</v>
       </c>
       <c r="Z50">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AA50">
         <f t="shared" si="4"/>
-        <v>174000</v>
+        <v>6000</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="5"/>
+        <v>168000</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
         <v>34</v>
@@ -5662,34 +5866,34 @@
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G51" t="s">
+        <v>125</v>
+      </c>
+      <c r="H51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I51" t="s">
+        <v>125</v>
+      </c>
+      <c r="J51" t="s">
+        <v>139</v>
+      </c>
+      <c r="K51" t="s">
+        <v>140</v>
+      </c>
+      <c r="L51" t="s">
+        <v>141</v>
+      </c>
+      <c r="M51" t="s">
         <v>126</v>
       </c>
-      <c r="H51" t="s">
-        <v>126</v>
-      </c>
-      <c r="I51" t="s">
-        <v>126</v>
-      </c>
-      <c r="J51" t="s">
-        <v>140</v>
-      </c>
-      <c r="K51" t="s">
-        <v>141</v>
-      </c>
-      <c r="L51" t="s">
-        <v>142</v>
-      </c>
-      <c r="M51" t="s">
-        <v>127</v>
-      </c>
       <c r="N51" t="s">
         <v>124</v>
       </c>
       <c r="O51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P51">
@@ -5717,23 +5921,27 @@
         <v>9000</v>
       </c>
       <c r="X51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11250</v>
       </c>
       <c r="Y51">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Z51">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AA51">
         <f t="shared" si="4"/>
-        <v>14000</v>
+        <v>2000</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="5"/>
+        <v>12000</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -5750,31 +5958,31 @@
         <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I52" t="s">
         <v>124</v>
       </c>
       <c r="J52" t="s">
+        <v>139</v>
+      </c>
+      <c r="K52" t="s">
         <v>140</v>
       </c>
-      <c r="K52" t="s">
-        <v>141</v>
-      </c>
       <c r="M52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N52" t="s">
         <v>124</v>
       </c>
       <c r="O52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="P52">
@@ -5802,23 +6010,27 @@
         <v>9000</v>
       </c>
       <c r="X52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11250</v>
       </c>
       <c r="Y52">
         <f t="shared" si="2"/>
-        <v>71000</v>
+        <v>70000</v>
       </c>
       <c r="Z52">
         <f t="shared" si="3"/>
-        <v>21000</v>
+        <v>24500</v>
       </c>
       <c r="AA52">
         <f t="shared" si="4"/>
-        <v>92000</v>
+        <v>1000</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="5"/>
+        <v>95500</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -5835,31 +6047,31 @@
         <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G53" t="s">
         <v>124</v>
       </c>
       <c r="H53" t="s">
+        <v>125</v>
+      </c>
+      <c r="I53" t="s">
+        <v>125</v>
+      </c>
+      <c r="K53" t="s">
+        <v>140</v>
+      </c>
+      <c r="L53" t="s">
+        <v>141</v>
+      </c>
+      <c r="M53" t="s">
         <v>126</v>
       </c>
-      <c r="I53" t="s">
-        <v>126</v>
-      </c>
-      <c r="K53" t="s">
-        <v>141</v>
-      </c>
-      <c r="L53" t="s">
-        <v>142</v>
-      </c>
-      <c r="M53" t="s">
-        <v>127</v>
-      </c>
       <c r="N53" t="s">
         <v>124</v>
       </c>
       <c r="O53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P53">
@@ -5887,23 +6099,27 @@
         <v>6000</v>
       </c>
       <c r="X53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7500</v>
       </c>
       <c r="Y53">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="Z53">
         <f t="shared" si="3"/>
-        <v>72000</v>
+        <v>67500</v>
       </c>
       <c r="AA53">
         <f t="shared" si="4"/>
-        <v>90000</v>
+        <v>18000</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="5"/>
+        <v>85500</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -5920,31 +6136,31 @@
         <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I54" t="s">
         <v>124</v>
       </c>
       <c r="J54" t="s">
+        <v>139</v>
+      </c>
+      <c r="K54" t="s">
         <v>140</v>
       </c>
-      <c r="K54" t="s">
-        <v>141</v>
-      </c>
       <c r="M54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N54" t="s">
         <v>124</v>
       </c>
       <c r="O54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P54">
@@ -5972,23 +6188,27 @@
         <v>6000</v>
       </c>
       <c r="X54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7500</v>
       </c>
       <c r="Y54">
         <f t="shared" si="2"/>
-        <v>43000</v>
+        <v>42000</v>
       </c>
       <c r="Z54">
         <f t="shared" si="3"/>
-        <v>22000</v>
+        <v>25500</v>
       </c>
       <c r="AA54">
         <f t="shared" si="4"/>
-        <v>65000</v>
+        <v>1000</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="5"/>
+        <v>68500</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -6005,34 +6225,34 @@
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G55" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55" t="s">
+        <v>125</v>
+      </c>
+      <c r="J55" t="s">
+        <v>139</v>
+      </c>
+      <c r="K55" t="s">
+        <v>140</v>
+      </c>
+      <c r="L55" t="s">
+        <v>141</v>
+      </c>
+      <c r="M55" t="s">
         <v>126</v>
-      </c>
-      <c r="H55" t="s">
-        <v>126</v>
-      </c>
-      <c r="I55" t="s">
-        <v>126</v>
-      </c>
-      <c r="J55" t="s">
-        <v>140</v>
-      </c>
-      <c r="K55" t="s">
-        <v>141</v>
-      </c>
-      <c r="L55" t="s">
-        <v>142</v>
-      </c>
-      <c r="M55" t="s">
-        <v>127</v>
       </c>
       <c r="N55" t="s">
         <v>18</v>
       </c>
       <c r="O55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P55">
@@ -6054,29 +6274,33 @@
         <v>1</v>
       </c>
       <c r="V55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W55">
         <v>7000</v>
       </c>
       <c r="X55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8750</v>
       </c>
       <c r="Y55">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Z55">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AA55">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>2000</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -6093,31 +6317,31 @@
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G56" t="s">
         <v>124</v>
       </c>
       <c r="H56" t="s">
+        <v>125</v>
+      </c>
+      <c r="I56" t="s">
+        <v>125</v>
+      </c>
+      <c r="K56" t="s">
+        <v>140</v>
+      </c>
+      <c r="L56" t="s">
+        <v>141</v>
+      </c>
+      <c r="M56" t="s">
         <v>126</v>
-      </c>
-      <c r="I56" t="s">
-        <v>126</v>
-      </c>
-      <c r="K56" t="s">
-        <v>141</v>
-      </c>
-      <c r="L56" t="s">
-        <v>142</v>
-      </c>
-      <c r="M56" t="s">
-        <v>127</v>
       </c>
       <c r="N56" t="s">
         <v>18</v>
       </c>
       <c r="O56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P56">
@@ -6139,18 +6363,18 @@
         <v>1</v>
       </c>
       <c r="V56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W56">
         <v>8000</v>
       </c>
       <c r="X56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
       <c r="Y56">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Z56">
         <f t="shared" si="3"/>
@@ -6158,10 +6382,14 @@
       </c>
       <c r="AA56">
         <f t="shared" si="4"/>
+        <v>4000</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="5"/>
         <v>40000</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -6178,34 +6406,34 @@
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J57" t="s">
+        <v>139</v>
+      </c>
+      <c r="K57" t="s">
         <v>140</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>141</v>
       </c>
-      <c r="L57" t="s">
-        <v>142</v>
-      </c>
       <c r="M57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N57" t="s">
         <v>18</v>
       </c>
       <c r="O57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="P57">
@@ -6227,29 +6455,33 @@
         <v>1</v>
       </c>
       <c r="V57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W57">
         <v>8000</v>
       </c>
       <c r="X57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
       <c r="Y57">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="Z57">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AA57">
         <f t="shared" si="4"/>
-        <v>44000</v>
+        <v>4000</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="5"/>
+        <v>40000</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -6266,7 +6498,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G58" t="s">
         <v>124</v>
@@ -6275,19 +6507,19 @@
         <v>124</v>
       </c>
       <c r="I58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N58" t="s">
         <v>124</v>
       </c>
       <c r="O58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P58">
@@ -6315,23 +6547,27 @@
         <v>8500</v>
       </c>
       <c r="X58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10625</v>
       </c>
       <c r="Y58">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="Z58">
         <f t="shared" si="3"/>
-        <v>38000</v>
+        <v>42500</v>
       </c>
       <c r="AA58">
         <f t="shared" si="4"/>
-        <v>42000</v>
+        <v>4000</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="5"/>
+        <v>46500</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>107</v>
       </c>
@@ -6348,31 +6584,31 @@
         <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I59" t="s">
         <v>124</v>
       </c>
       <c r="J59" t="s">
+        <v>139</v>
+      </c>
+      <c r="K59" t="s">
         <v>140</v>
       </c>
-      <c r="K59" t="s">
-        <v>141</v>
-      </c>
       <c r="M59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N59" t="s">
         <v>124</v>
       </c>
       <c r="O59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="P59">
@@ -6400,23 +6636,27 @@
         <v>8500</v>
       </c>
       <c r="X59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10625</v>
       </c>
       <c r="Y59">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>76000</v>
       </c>
       <c r="Z59">
         <f t="shared" si="3"/>
-        <v>42000</v>
+        <v>46500</v>
       </c>
       <c r="AA59">
         <f t="shared" si="4"/>
-        <v>122000</v>
+        <v>4000</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="5"/>
+        <v>126500</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -6433,31 +6673,31 @@
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I60" t="s">
         <v>124</v>
       </c>
       <c r="J60" t="s">
+        <v>139</v>
+      </c>
+      <c r="K60" t="s">
         <v>140</v>
       </c>
-      <c r="K60" t="s">
-        <v>141</v>
-      </c>
       <c r="M60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N60" t="s">
         <v>18</v>
       </c>
       <c r="O60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="P60">
@@ -6485,23 +6725,27 @@
         <v>10000</v>
       </c>
       <c r="X60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12500</v>
       </c>
       <c r="Y60">
         <f t="shared" si="2"/>
-        <v>56000</v>
+        <v>55000</v>
       </c>
       <c r="Z60">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA60">
         <f t="shared" si="4"/>
-        <v>57000</v>
+        <v>1000</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="5"/>
+        <v>56000</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -6518,7 +6762,7 @@
         <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G61" t="s">
         <v>124</v>
@@ -6530,16 +6774,16 @@
         <v>124</v>
       </c>
       <c r="J61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N61" t="s">
         <v>18</v>
       </c>
       <c r="O61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="P61">
@@ -6567,7 +6811,7 @@
         <v>10000</v>
       </c>
       <c r="X61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12500</v>
       </c>
       <c r="Y61">
@@ -6576,14 +6820,18 @@
       </c>
       <c r="Z61">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="AA61">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="5"/>
+        <v>55000</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -6600,7 +6848,7 @@
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G62" t="s">
         <v>124</v>
@@ -6609,19 +6857,19 @@
         <v>124</v>
       </c>
       <c r="I62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N62" t="s">
         <v>18</v>
       </c>
       <c r="O62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="P62">
@@ -6649,23 +6897,27 @@
         <v>10000</v>
       </c>
       <c r="X62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12500</v>
       </c>
       <c r="Y62">
         <f t="shared" si="2"/>
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="Z62">
         <f t="shared" si="3"/>
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="AA62">
         <f t="shared" si="4"/>
-        <v>52000</v>
+        <v>1000</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="5"/>
+        <v>56000</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>111</v>
       </c>
@@ -6682,31 +6934,31 @@
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G63" t="s">
+        <v>125</v>
+      </c>
+      <c r="H63" t="s">
+        <v>125</v>
+      </c>
+      <c r="I63" t="s">
+        <v>124</v>
+      </c>
+      <c r="J63" t="s">
+        <v>139</v>
+      </c>
+      <c r="K63" t="s">
+        <v>140</v>
+      </c>
+      <c r="M63" t="s">
         <v>126</v>
-      </c>
-      <c r="H63" t="s">
-        <v>126</v>
-      </c>
-      <c r="I63" t="s">
-        <v>124</v>
-      </c>
-      <c r="J63" t="s">
-        <v>140</v>
-      </c>
-      <c r="K63" t="s">
-        <v>141</v>
-      </c>
-      <c r="M63" t="s">
-        <v>127</v>
       </c>
       <c r="N63" t="s">
         <v>18</v>
       </c>
       <c r="O63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P63">
@@ -6728,29 +6980,33 @@
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W63">
         <v>10000</v>
       </c>
       <c r="X63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12500</v>
       </c>
       <c r="Y63">
         <f t="shared" si="2"/>
-        <v>603000</v>
+        <v>594000</v>
       </c>
       <c r="Z63">
         <f t="shared" si="3"/>
-        <v>306000</v>
+        <v>364500</v>
       </c>
       <c r="AA63">
         <f t="shared" si="4"/>
-        <v>909000</v>
+        <v>9000</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="5"/>
+        <v>967500</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -6767,34 +7023,34 @@
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J64" t="s">
+        <v>139</v>
+      </c>
+      <c r="K64" t="s">
         <v>140</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>141</v>
       </c>
-      <c r="L64" t="s">
-        <v>142</v>
-      </c>
       <c r="M64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N64" t="s">
         <v>124</v>
       </c>
       <c r="O64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P64">
@@ -6816,29 +7072,33 @@
         <v>1</v>
       </c>
       <c r="V64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W64">
         <v>10000</v>
       </c>
       <c r="X64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12500</v>
       </c>
       <c r="Y64">
         <f t="shared" si="2"/>
-        <v>117000</v>
+        <v>99000</v>
       </c>
       <c r="Z64">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="AA64">
         <f t="shared" si="4"/>
-        <v>135000</v>
+        <v>18000</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="5"/>
+        <v>117000</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -6855,31 +7115,31 @@
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H65" t="s">
         <v>124</v>
       </c>
       <c r="I65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N65" t="s">
         <v>18</v>
       </c>
       <c r="O65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P65">
@@ -6901,29 +7161,33 @@
         <v>1</v>
       </c>
       <c r="V65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W65">
         <v>10000</v>
       </c>
       <c r="X65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12500</v>
       </c>
       <c r="Y65">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="Z65">
         <f t="shared" si="3"/>
-        <v>108000</v>
+        <v>121500</v>
       </c>
       <c r="AA65">
         <f t="shared" si="4"/>
-        <v>117000</v>
+        <v>9000</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="5"/>
+        <v>130500</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>114</v>
       </c>
@@ -6940,10 +7204,10 @@
         <v>24</v>
       </c>
       <c r="F66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H66" t="s">
         <v>124</v>
@@ -6952,16 +7216,16 @@
         <v>124</v>
       </c>
       <c r="J66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N66" t="s">
         <v>124</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O97" si="7">Q66-P66</f>
+        <f t="shared" ref="O66:O74" si="8">Q66-P66</f>
         <v>6</v>
       </c>
       <c r="P66">
@@ -6983,13 +7247,13 @@
         <v>0</v>
       </c>
       <c r="V66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W66">
         <v>10000</v>
       </c>
       <c r="X66">
-        <f t="shared" ref="X66:X97" si="8">W66*1.25</f>
+        <f t="shared" ref="X66:X74" si="9">W66*1.25</f>
         <v>12500</v>
       </c>
       <c r="Y66">
@@ -6998,14 +7262,18 @@
       </c>
       <c r="Z66">
         <f t="shared" si="3"/>
-        <v>297000</v>
+        <v>364500</v>
       </c>
       <c r="AA66">
         <f t="shared" si="4"/>
-        <v>891000</v>
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="5"/>
+        <v>958500</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -7022,28 +7290,28 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G67" t="s">
         <v>124</v>
       </c>
       <c r="H67" t="s">
+        <v>125</v>
+      </c>
+      <c r="I67" t="s">
+        <v>124</v>
+      </c>
+      <c r="K67" t="s">
+        <v>140</v>
+      </c>
+      <c r="M67" t="s">
         <v>126</v>
-      </c>
-      <c r="I67" t="s">
-        <v>124</v>
-      </c>
-      <c r="K67" t="s">
-        <v>141</v>
-      </c>
-      <c r="M67" t="s">
-        <v>127</v>
       </c>
       <c r="N67" t="s">
         <v>18</v>
       </c>
       <c r="O67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P67">
@@ -7065,29 +7333,33 @@
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W67">
         <v>10000</v>
       </c>
       <c r="X67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12500</v>
       </c>
       <c r="Y67">
-        <f t="shared" ref="Y67:Y74" si="9">W67*O67*R67+1000*S67*O67*R67+1000*T67*R67+1000*U67*R67</f>
+        <f t="shared" ref="Y67:Y74" si="10">W67*O67*R67+1000*S67*O67*R67</f>
+        <v>90000</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" ref="Z67:Z74" si="11">X67*P67*R67+1000*S67*P67*R67</f>
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" ref="AA67:AA74" si="12">1000*T67*R67+1000*U67*R67</f>
+        <v>9000</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" ref="AB67:AB74" si="13">Y67+Z67+AA67</f>
         <v>99000</v>
       </c>
-      <c r="Z67">
-        <f t="shared" ref="Z67:Z74" si="10">W67*P67*R67+1000*S67*P67*R67+1000*T67*R67+1000*U67*R67</f>
-        <v>9000</v>
-      </c>
-      <c r="AA67">
-        <f t="shared" ref="AA67:AA74" si="11">Y67+Z67</f>
-        <v>108000</v>
-      </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -7104,7 +7376,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G68" t="s">
         <v>124</v>
@@ -7113,19 +7385,19 @@
         <v>124</v>
       </c>
       <c r="I68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N68" t="s">
         <v>124</v>
       </c>
       <c r="O68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P68">
@@ -7147,29 +7419,33 @@
         <v>1</v>
       </c>
       <c r="V68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W68">
         <v>10000</v>
       </c>
       <c r="X68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12500</v>
       </c>
       <c r="Y68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
+        <v>20000</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="13"/>
         <v>22000</v>
       </c>
-      <c r="Z68">
-        <f t="shared" si="10"/>
-        <v>2000</v>
-      </c>
-      <c r="AA68">
-        <f t="shared" si="11"/>
-        <v>24000</v>
-      </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>117</v>
       </c>
@@ -7186,28 +7462,28 @@
         <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G69" t="s">
         <v>124</v>
       </c>
       <c r="H69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I69" t="s">
         <v>124</v>
       </c>
       <c r="K69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N69" t="s">
         <v>18</v>
       </c>
       <c r="O69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="P69">
@@ -7229,29 +7505,33 @@
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W69">
         <v>10000</v>
       </c>
       <c r="X69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12500</v>
       </c>
       <c r="Y69">
-        <f t="shared" si="9"/>
-        <v>639000</v>
+        <f t="shared" si="10"/>
+        <v>630000</v>
       </c>
       <c r="Z69">
-        <f t="shared" si="10"/>
-        <v>189000</v>
+        <f t="shared" si="11"/>
+        <v>225000</v>
       </c>
       <c r="AA69">
-        <f t="shared" si="11"/>
-        <v>828000</v>
+        <f t="shared" si="12"/>
+        <v>9000</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="13"/>
+        <v>864000</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -7268,31 +7548,31 @@
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G70" t="s">
         <v>124</v>
       </c>
       <c r="H70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K70" t="s">
+        <v>140</v>
+      </c>
+      <c r="L70" t="s">
         <v>141</v>
       </c>
-      <c r="L70" t="s">
-        <v>142</v>
-      </c>
       <c r="M70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N70" t="s">
         <v>18</v>
       </c>
       <c r="O70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P70">
@@ -7320,23 +7600,27 @@
         <v>7500</v>
       </c>
       <c r="X70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9375</v>
       </c>
       <c r="Y70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
+        <v>7500</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="13"/>
         <v>9500</v>
       </c>
-      <c r="Z70">
-        <f t="shared" si="10"/>
-        <v>2000</v>
-      </c>
-      <c r="AA70">
-        <f t="shared" si="11"/>
-        <v>11500</v>
-      </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -7353,31 +7637,31 @@
         <v>24</v>
       </c>
       <c r="F71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I71" t="s">
         <v>124</v>
       </c>
       <c r="J71" t="s">
+        <v>139</v>
+      </c>
+      <c r="K71" t="s">
         <v>140</v>
       </c>
-      <c r="K71" t="s">
-        <v>141</v>
-      </c>
       <c r="M71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N71" t="s">
         <v>124</v>
       </c>
       <c r="O71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="P71">
@@ -7405,23 +7689,27 @@
         <v>7500</v>
       </c>
       <c r="X71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9375</v>
       </c>
       <c r="Y71">
-        <f t="shared" si="9"/>
-        <v>121000</v>
+        <f t="shared" si="10"/>
+        <v>119000</v>
       </c>
       <c r="Z71">
-        <f t="shared" si="10"/>
-        <v>36000</v>
+        <f t="shared" si="11"/>
+        <v>41500</v>
       </c>
       <c r="AA71">
-        <f t="shared" si="11"/>
-        <v>157000</v>
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="13"/>
+        <v>162500</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>120</v>
       </c>
@@ -7438,7 +7726,7 @@
         <v>24</v>
       </c>
       <c r="F72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G72" t="s">
         <v>124</v>
@@ -7450,16 +7738,16 @@
         <v>124</v>
       </c>
       <c r="J72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M72" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N72" t="s">
         <v>18</v>
       </c>
       <c r="O72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P72">
@@ -7487,23 +7775,27 @@
         <v>5500</v>
       </c>
       <c r="X72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6875</v>
       </c>
       <c r="Y72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55000</v>
       </c>
       <c r="Z72">
-        <f t="shared" si="10"/>
-        <v>44000</v>
+        <f t="shared" si="11"/>
+        <v>55000</v>
       </c>
       <c r="AA72">
-        <f t="shared" si="11"/>
-        <v>99000</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <f t="shared" si="13"/>
+        <v>110000</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -7520,7 +7812,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G73" t="s">
         <v>124</v>
@@ -7529,19 +7821,19 @@
         <v>124</v>
       </c>
       <c r="I73" t="s">
+        <v>125</v>
+      </c>
+      <c r="L73" t="s">
+        <v>141</v>
+      </c>
+      <c r="M73" t="s">
         <v>126</v>
-      </c>
-      <c r="L73" t="s">
-        <v>142</v>
-      </c>
-      <c r="M73" t="s">
-        <v>127</v>
       </c>
       <c r="N73" t="s">
         <v>18</v>
       </c>
       <c r="O73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P73">
@@ -7569,23 +7861,27 @@
         <v>5500</v>
       </c>
       <c r="X73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6875</v>
       </c>
       <c r="Y73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
+        <v>5500</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="13"/>
         <v>6500</v>
       </c>
-      <c r="Z73">
-        <f t="shared" si="10"/>
-        <v>1000</v>
-      </c>
-      <c r="AA73">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -7602,31 +7898,31 @@
         <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I74" t="s">
         <v>124</v>
       </c>
       <c r="J74" t="s">
+        <v>139</v>
+      </c>
+      <c r="K74" t="s">
         <v>140</v>
       </c>
-      <c r="K74" t="s">
-        <v>141</v>
-      </c>
       <c r="M74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N74" t="s">
         <v>124</v>
       </c>
       <c r="O74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P74">
@@ -7654,24 +7950,28 @@
         <v>9000</v>
       </c>
       <c r="X74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11250</v>
       </c>
       <c r="Y74">
-        <f t="shared" si="9"/>
-        <v>66000</v>
+        <f t="shared" si="10"/>
+        <v>60000</v>
       </c>
       <c r="Z74">
-        <f t="shared" si="10"/>
-        <v>126000</v>
+        <f t="shared" si="11"/>
+        <v>147000</v>
       </c>
       <c r="AA74">
-        <f t="shared" si="11"/>
-        <v>192000</v>
+        <f t="shared" si="12"/>
+        <v>6000</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="13"/>
+        <v>213000</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AA74">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AB74">
     <sortCondition ref="B2:B74"/>
     <sortCondition ref="C2:C74"/>
     <sortCondition ref="D2:D74"/>
@@ -7685,5 +7985,6 @@
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PlanispherReserveTest002.xls.xlsx
+++ b/PlanispherReserveTest002.xls.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Planisphere\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaorichan\Documents\GOZARU\公開サイト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6B19BB-E34C-4D59-B8E3-6C38189A5FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DDB459-24BD-4FA7-B03D-27E1185D6978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2655,10 +2655,10 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -2687,11 +2687,11 @@
       </c>
       <c r="Y14">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="Z14">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="AA14">
         <f t="shared" si="4"/>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="AB14">
         <f t="shared" si="5"/>
-        <v>55000</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">

--- a/PlanispherReserveTest002.xls.xlsx
+++ b/PlanispherReserveTest002.xls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaorichan\Documents\GOZARU\公開サイト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DDB459-24BD-4FA7-B03D-27E1185D6978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92233664-E432-46DC-8710-60A47716BACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4924,10 +4924,10 @@
       </c>
       <c r="O40">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -4955,20 +4955,20 @@
         <v>10625</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="2"/>
-        <v>68000</v>
+        <f>W40*O40*R40+1000*S40*O40*R40</f>
+        <v>102000</v>
       </c>
       <c r="Z40">
         <f t="shared" si="3"/>
-        <v>42500</v>
+        <v>0</v>
       </c>
       <c r="AA40">
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="5"/>
-        <v>114500</v>
+        <f>Y40+Z40+AA40</f>
+        <v>106000</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.45">
